--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
@@ -43,48 +43,42 @@
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>shortage</t>
+    <t>risk</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -94,102 +88,111 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>better</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>well</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>help</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>energy</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>please</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>give</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>online</t>
   </si>
   <si>
@@ -202,19 +205,16 @@
     <t>grocery</t>
   </si>
   <si>
+    <t>san</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>san</t>
+    <t>19</t>
   </si>
   <si>
     <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
   <si>
     <t>co</t>
@@ -578,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -586,10 +586,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -668,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -697,13 +697,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7777777777777778</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -747,7 +747,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7307692307692307</v>
+        <v>0.76</v>
       </c>
       <c r="C5">
         <v>19</v>
@@ -765,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -797,13 +797,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6896551724137931</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K6">
-        <v>0.9090909090909091</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -847,13 +847,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.684931506849315</v>
+        <v>0.7054794520547946</v>
       </c>
       <c r="C7">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D7">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K7">
-        <v>0.8839285714285714</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -897,13 +897,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5384615384615384</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>0.8611111111111112</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -947,13 +947,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5263157894736842</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9">
-        <v>0.84375</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L9">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="M9">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -997,13 +997,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3585271317829458</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="C10">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1015,19 +1015,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>331</v>
+        <v>46</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K10">
-        <v>0.8292682926829268</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L10">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="M10">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1047,13 +1047,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3557046979865772</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="C11">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="D11">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1065,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>96</v>
+        <v>324</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>0.8085106382978723</v>
+        <v>0.796875</v>
       </c>
       <c r="L11">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="M11">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1097,13 +1097,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3466666666666667</v>
+        <v>0.3624161073825503</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1115,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K12">
-        <v>0.8028169014084507</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L12">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="M12">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1147,13 +1147,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3389830508474576</v>
+        <v>0.3506493506493507</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1165,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>0.8</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L13">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="M13">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1218,16 +1218,16 @@
         <v>126</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>0.7931034482758621</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="L14">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1247,13 +1247,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2597402597402597</v>
+        <v>0.2555555555555555</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1265,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K15">
-        <v>0.78125</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L15">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="M15">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1297,13 +1297,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2444444444444444</v>
+        <v>0.1865079365079365</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1315,19 +1315,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>68</v>
+        <v>205</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K16">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1347,13 +1347,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2375</v>
+        <v>0.1099195710455764</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1365,10 +1365,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>61</v>
+        <v>332</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K17">
         <v>0.746031746031746</v>
@@ -1393,41 +1393,17 @@
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.1984126984126984</v>
-      </c>
-      <c r="C18">
-        <v>50</v>
-      </c>
-      <c r="D18">
-        <v>50</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>202</v>
-      </c>
       <c r="J18" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K18">
-        <v>0.7450980392156863</v>
+        <v>0.71875</v>
       </c>
       <c r="L18">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="M18">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1439,45 +1415,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.1260053619302949</v>
-      </c>
-      <c r="C19">
-        <v>47</v>
-      </c>
-      <c r="D19">
-        <v>47</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>326</v>
-      </c>
       <c r="J19" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K19">
-        <v>0.7358490566037735</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L19">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="M19">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1489,21 +1441,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>0.6914893617021277</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L20">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1515,21 +1467,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K21">
-        <v>0.6458333333333334</v>
+        <v>0.6266318537859008</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>240</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>240</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1541,21 +1493,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K22">
-        <v>0.6318537859007833</v>
+        <v>0.6</v>
       </c>
       <c r="L22">
-        <v>242</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>242</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1567,21 +1519,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>141</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K23">
-        <v>0.6</v>
+        <v>0.5852941176470589</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>199</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>199</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1593,21 +1545,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>20</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K24">
-        <v>0.5911764705882353</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L24">
-        <v>201</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>201</v>
+        <v>28</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1619,21 +1571,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>139</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K25">
-        <v>0.5393258426966292</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L25">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="M25">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1645,21 +1597,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K26">
-        <v>0.5254237288135594</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="L26">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="M26">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1671,21 +1623,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>0.5111111111111111</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L27">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="M27">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1697,21 +1649,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K28">
-        <v>0.5</v>
+        <v>0.497907949790795</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1723,21 +1675,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K29">
-        <v>0.4769230769230769</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="L29">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M29">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1749,21 +1701,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K30">
-        <v>0.4657534246575342</v>
+        <v>0.475</v>
       </c>
       <c r="L30">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M30">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1775,21 +1727,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K31">
-        <v>0.4602510460251046</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L31">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="M31">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1801,15 +1753,15 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>129</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K32">
-        <v>0.4285714285714285</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L32">
         <v>30</v>
@@ -1827,21 +1779,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>0.4102564102564102</v>
+        <v>0.453125</v>
       </c>
       <c r="L33">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M33">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1853,21 +1805,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K34">
-        <v>0.359375</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L34">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M34">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1879,21 +1831,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K35">
-        <v>0.1172248803827751</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L35">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="M35">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1905,21 +1857,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>369</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K36">
-        <v>0.1057692307692308</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="L36">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1931,21 +1883,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>372</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K37">
-        <v>0.09172259507829977</v>
+        <v>0.2714285714285714</v>
       </c>
       <c r="L37">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="M37">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1957,21 +1909,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>812</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K38">
-        <v>0.06215316315205328</v>
+        <v>0.1411483253588517</v>
       </c>
       <c r="L38">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M38">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1983,73 +1935,73 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>845</v>
+        <v>359</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K39">
-        <v>0.05092592592592592</v>
+        <v>0.0985576923076923</v>
       </c>
       <c r="L39">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M39">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="N39">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>615</v>
+        <v>375</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K40">
-        <v>0.04732510288065844</v>
+        <v>0.0929451287793953</v>
       </c>
       <c r="L40">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="M40">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>463</v>
+        <v>810</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K41">
-        <v>0.03690888119953864</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="L41">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="M41">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2061,111 +2013,163 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>835</v>
+        <v>848</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K42">
-        <v>0.02901263453439401</v>
+        <v>0.04732510288065844</v>
       </c>
       <c r="L42">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="M42">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="N42">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>2075</v>
+        <v>463</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K43">
-        <v>0.02068252326783868</v>
+        <v>0.04468412942989214</v>
       </c>
       <c r="L43">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M43">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N43">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O43">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>947</v>
+        <v>620</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K44">
-        <v>0.01967741935483871</v>
+        <v>0.0351123595505618</v>
       </c>
       <c r="L44">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="M44">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="N44">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="O44">
-        <v>0.09999999999999998</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>3039</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K45">
+        <v>0.03114186851211072</v>
+      </c>
+      <c r="L45">
+        <v>27</v>
+      </c>
+      <c r="M45">
+        <v>27</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K46">
+        <v>0.01743060038734668</v>
+      </c>
+      <c r="L46">
+        <v>54</v>
+      </c>
+      <c r="M46">
+        <v>63</v>
+      </c>
+      <c r="N46">
+        <v>0.86</v>
+      </c>
+      <c r="O46">
+        <v>0.14</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K45">
-        <v>0.009736180904522614</v>
-      </c>
-      <c r="L45">
-        <v>31</v>
-      </c>
-      <c r="M45">
-        <v>48</v>
-      </c>
-      <c r="N45">
-        <v>0.65</v>
-      </c>
-      <c r="O45">
-        <v>0.35</v>
-      </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>3153</v>
+      <c r="K47">
+        <v>0.007846829880728186</v>
+      </c>
+      <c r="L47">
+        <v>25</v>
+      </c>
+      <c r="M47">
+        <v>40</v>
+      </c>
+      <c r="N47">
+        <v>0.62</v>
+      </c>
+      <c r="O47">
+        <v>0.38</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>3161</v>
       </c>
     </row>
   </sheetData>
